--- a/biology/Botanique/Gentiana_ornata/Gentiana_ornata.xlsx
+++ b/biology/Botanique/Gentiana_ornata/Gentiana_ornata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentiana ornata est une espèce de Gentianes du genre Gentiana présente dans l'Himalaya.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles, de forme lancéolée, sont disposées en rosette et mesurent 1,5 à 2,5 cm. Les fleurs sont en forme de clochettes évasées, de 2,5 à 3,5 cm de long. Les pétales, arrondis à triangulaires, d'un bleu profond, alternent avec des sépales à peu près de la même taille, bleus ou violets. Le cœur de la fleur est blanchâtre et présente des stries violacées.
 La floraison a lieu de mai à novembre.
@@ -543,7 +557,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentiana ornata pousse en milieu ouvert, sur sol nu ou sur les pelouses rases, entre 3 200 et 5 500 m d'altitude. Elle est présente dans l'Himalaya, en Inde, au Népal et en Chine.
 </t>
